--- a/juhj.xlsx
+++ b/juhj.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aneesha\Documents\GitHub\IntegrationMine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D028B59-F1AD-468E-97C3-879348E46BF6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA225FB-C9BE-48F0-A0E7-FC802193B5A8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SF_FunTCTrial" sheetId="2" r:id="rId1"/>
@@ -1351,8 +1351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I80" sqref="I80"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2682,8 +2682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J208"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I200"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/juhj.xlsx
+++ b/juhj.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aneesha\Documents\GitHub\IntegrationMine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA225FB-C9BE-48F0-A0E7-FC802193B5A8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74867314-6E08-4B8A-9570-F4FF4048ED4B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SF_FunTCTrial" sheetId="2" r:id="rId1"/>
@@ -1351,8 +1351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2682,7 +2682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
